--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\office-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A44C02-97FC-4EC4-881A-AA83E433A591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E8337-8F0C-41AA-8CA6-F0F1C70165EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -50,6 +50,46 @@
   </si>
   <si>
     <t>类别 4</t>
+  </si>
+  <si>
+    <t>李二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伟楠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -374,82 +414,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>4.3</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>2.5</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>4.4000000000000004</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>3.5</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>1.8</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>4.5</v>
+        <v>69</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>77</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -463,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C4E4FC-93B7-401C-929B-16C4DA18FB2B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\office-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E8337-8F0C-41AA-8CA6-F0F1C70165EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C29450-76D9-41F7-9EEA-4BA16699756C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -81,14 +81,6 @@
   </si>
   <si>
     <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易伟楠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易雷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F8"/>
+      <selection activeCell="A6" sqref="A6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,40 +494,6 @@
       </c>
       <c r="E5">
         <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>55</v>
-      </c>
-      <c r="C6">
-        <v>66</v>
-      </c>
-      <c r="D6">
-        <v>77</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\office-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C29450-76D9-41F7-9EEA-4BA16699756C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38F34B9-25FC-4588-B8CD-56B9E37ECED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
